--- a/UserStudy/TaskScores_DataSummary.xlsx
+++ b/UserStudy/TaskScores_DataSummary.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="32660" windowHeight="19820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="33520" windowHeight="25940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Search Task (Remove incorrect)" sheetId="1" r:id="rId1"/>
     <sheet name="Summary Task" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>Interface</t>
   </si>
@@ -321,12 +318,18 @@
   <si>
     <t>User6-C</t>
   </si>
+  <si>
+    <t>Mcunn (B,C,A)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -398,8 +401,25 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +459,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF6B26B"/>
         <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -787,11 +825,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -880,8 +924,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -1160,11 +1218,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="2139742760"/>
-        <c:axId val="2136351352"/>
+        <c:axId val="-2138830392"/>
+        <c:axId val="-2138827272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139742760"/>
+        <c:axId val="-2138830392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136351352"/>
+        <c:crossAx val="-2138827272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136351352"/>
+        <c:axId val="-2138827272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140.0"/>
@@ -1199,7 +1257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139742760"/>
+        <c:crossAx val="-2138830392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -1493,11 +1551,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="2145939352"/>
-        <c:axId val="2145787976"/>
+        <c:axId val="-2123836232"/>
+        <c:axId val="-2123919480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145939352"/>
+        <c:axId val="-2123836232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145787976"/>
+        <c:crossAx val="-2123919480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145787976"/>
+        <c:axId val="-2123919480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140.0"/>
@@ -1532,7 +1590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145939352"/>
+        <c:crossAx val="-2123836232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -1828,11 +1886,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="2140012200"/>
-        <c:axId val="2139335688"/>
+        <c:axId val="-2123929480"/>
+        <c:axId val="-2123926360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140012200"/>
+        <c:axId val="-2123929480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139335688"/>
+        <c:crossAx val="-2123926360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1849,7 +1907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139335688"/>
+        <c:axId val="-2123926360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -1867,7 +1925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140012200"/>
+        <c:crossAx val="-2123929480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -1990,204 +2048,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary Task_Prelim"/>
-      <sheetName val="Search Task (all data)"/>
-      <sheetName val="Search Task (Remove BestWorst)"/>
-      <sheetName val="Search Task (Remove incorrect)"/>
-      <sheetName val="Summary Task"/>
-      <sheetName val="Comprehension Task"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="G46" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="K46" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="L46" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O46" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="P46" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="Q46" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>19</v>
-          </cell>
-          <cell r="F54">
-            <v>13</v>
-          </cell>
-          <cell r="G54">
-            <v>9.25</v>
-          </cell>
-          <cell r="J54">
-            <v>12</v>
-          </cell>
-          <cell r="K54">
-            <v>6</v>
-          </cell>
-          <cell r="L54">
-            <v>10.25</v>
-          </cell>
-          <cell r="O54">
-            <v>14.75</v>
-          </cell>
-          <cell r="P54">
-            <v>7</v>
-          </cell>
-          <cell r="Q54">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>11</v>
-          </cell>
-          <cell r="F55">
-            <v>9</v>
-          </cell>
-          <cell r="G55">
-            <v>8.75</v>
-          </cell>
-          <cell r="J55">
-            <v>6</v>
-          </cell>
-          <cell r="K55">
-            <v>3</v>
-          </cell>
-          <cell r="L55">
-            <v>3.75</v>
-          </cell>
-          <cell r="O55">
-            <v>12.75</v>
-          </cell>
-          <cell r="P55">
-            <v>9</v>
-          </cell>
-          <cell r="Q55">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>2</v>
-          </cell>
-          <cell r="F56">
-            <v>12</v>
-          </cell>
-          <cell r="G56">
-            <v>35.5</v>
-          </cell>
-          <cell r="J56">
-            <v>10.75</v>
-          </cell>
-          <cell r="K56">
-            <v>6</v>
-          </cell>
-          <cell r="L56">
-            <v>14</v>
-          </cell>
-          <cell r="O56">
-            <v>30.5</v>
-          </cell>
-          <cell r="P56">
-            <v>8.5</v>
-          </cell>
-          <cell r="Q56">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>12</v>
-          </cell>
-          <cell r="F57">
-            <v>9</v>
-          </cell>
-          <cell r="G57">
-            <v>3.25</v>
-          </cell>
-          <cell r="J57">
-            <v>6</v>
-          </cell>
-          <cell r="K57">
-            <v>4</v>
-          </cell>
-          <cell r="L57">
-            <v>4.25</v>
-          </cell>
-          <cell r="O57">
-            <v>10.75</v>
-          </cell>
-          <cell r="P57">
-            <v>4</v>
-          </cell>
-          <cell r="Q57">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>53</v>
-          </cell>
-          <cell r="F58">
-            <v>46</v>
-          </cell>
-          <cell r="G58">
-            <v>80.5</v>
-          </cell>
-          <cell r="J58">
-            <v>110.25</v>
-          </cell>
-          <cell r="K58">
-            <v>45</v>
-          </cell>
-          <cell r="L58">
-            <v>83</v>
-          </cell>
-          <cell r="O58">
-            <v>45</v>
-          </cell>
-          <cell r="P58">
-            <v>166.5</v>
-          </cell>
-          <cell r="Q58">
-            <v>143</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4689,7 +4549,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="57">
-        <f t="shared" ref="F54:H54" si="6">F47</f>
+        <f t="shared" ref="F54:G54" si="6">F47</f>
         <v>13</v>
       </c>
       <c r="G54" s="58">
@@ -4698,7 +4558,7 @@
       </c>
       <c r="I54" s="56"/>
       <c r="J54" s="57">
-        <f t="shared" ref="J54:M54" si="7">J47</f>
+        <f t="shared" ref="J54:L54" si="7">J47</f>
         <v>12</v>
       </c>
       <c r="K54" s="57">
@@ -4712,7 +4572,7 @@
       <c r="M54" s="57"/>
       <c r="N54" s="56"/>
       <c r="O54" s="57">
-        <f t="shared" ref="O54:S54" si="8">O47</f>
+        <f t="shared" ref="O54:Q54" si="8">O47</f>
         <v>14.75</v>
       </c>
       <c r="P54" s="57">
@@ -4736,7 +4596,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="57">
-        <f t="shared" ref="F55:H56" si="9">F48-F47</f>
+        <f t="shared" ref="F55:G56" si="9">F48-F47</f>
         <v>9</v>
       </c>
       <c r="G55" s="58">
@@ -4745,7 +4605,7 @@
       </c>
       <c r="I55" s="56"/>
       <c r="J55" s="57">
-        <f t="shared" ref="J55:M56" si="10">J48-J47</f>
+        <f t="shared" ref="J55:L56" si="10">J48-J47</f>
         <v>6</v>
       </c>
       <c r="K55" s="57">
@@ -4759,7 +4619,7 @@
       <c r="M55" s="57"/>
       <c r="N55" s="56"/>
       <c r="O55" s="57">
-        <f t="shared" ref="O55:S56" si="11">O48-O47</f>
+        <f t="shared" ref="O55:Q56" si="11">O48-O47</f>
         <v>12.75</v>
       </c>
       <c r="P55" s="57">
@@ -4839,7 +4699,7 @@
       </c>
       <c r="I57" s="56"/>
       <c r="J57" s="57">
-        <f t="shared" ref="J57:N57" si="12">J47-J50</f>
+        <f t="shared" ref="J57:L57" si="12">J47-J50</f>
         <v>6</v>
       </c>
       <c r="K57" s="57">
@@ -4853,7 +4713,7 @@
       <c r="M57" s="57"/>
       <c r="N57" s="56"/>
       <c r="O57" s="57">
-        <f t="shared" ref="O57:S57" si="13">O47-O50</f>
+        <f t="shared" ref="O57:Q57" si="13">O47-O50</f>
         <v>10.75</v>
       </c>
       <c r="P57" s="57">
@@ -4886,7 +4746,7 @@
       </c>
       <c r="I58" s="59"/>
       <c r="J58" s="60">
-        <f t="shared" ref="J58:N58" si="14">J51-J49</f>
+        <f t="shared" ref="J58:L58" si="14">J51-J49</f>
         <v>110.25</v>
       </c>
       <c r="K58" s="60">
@@ -4900,7 +4760,7 @@
       <c r="M58" s="57"/>
       <c r="N58" s="59"/>
       <c r="O58" s="60">
-        <f t="shared" ref="O58:S58" si="15">O51-O49</f>
+        <f t="shared" ref="O58:Q58" si="15">O51-O49</f>
         <v>45</v>
       </c>
       <c r="P58" s="60">
@@ -9743,17 +9603,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE79"/>
+  <dimension ref="A1:AE89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="M52" sqref="M52"/>
-      <selection pane="topRight" activeCell="N35" sqref="N35"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="14.5" style="10"/>
+    <col min="1" max="2" width="14.5" style="10"/>
+    <col min="3" max="5" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -9786,1102 +9648,1407 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>42138</v>
-      </c>
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="87">
+        <v>0.67</v>
+      </c>
+      <c r="G2" s="87">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="I2" s="91">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="K2" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="91">
+        <v>1</v>
+      </c>
+      <c r="G3" s="91">
+        <v>0</v>
+      </c>
+      <c r="H3" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="I3" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="87">
+        <v>0.33</v>
+      </c>
+      <c r="K3" s="87">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="87">
+        <v>0.33</v>
+      </c>
+      <c r="I4" s="87">
+        <v>0.44</v>
+      </c>
+      <c r="J4" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="91">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="87">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="87">
+        <v>0.67</v>
+      </c>
+      <c r="H5" s="91">
+        <v>1</v>
+      </c>
+      <c r="I5" s="91">
+        <v>0.73</v>
+      </c>
+      <c r="J5" s="88">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="89">
+        <f>7/10</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="G6" s="91">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="88">
+        <v>1</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J6" s="87">
+        <v>1</v>
+      </c>
+      <c r="K6" s="87">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.67</v>
+      </c>
+      <c r="I7" s="87">
+        <v>0.67</v>
+      </c>
+      <c r="J7" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="K7" s="91">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="87">
+        <v>1</v>
+      </c>
+      <c r="G8" s="87">
+        <v>0.78</v>
+      </c>
+      <c r="H8" s="91">
+        <v>1</v>
+      </c>
+      <c r="I8" s="91">
+        <v>0.64</v>
+      </c>
+      <c r="J8" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="90">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="G9" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H9" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="I9" s="88">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="87">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="G10" s="88">
+        <f>7/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="87">
+        <v>1</v>
+      </c>
+      <c r="I10" s="87">
+        <v>0.89</v>
+      </c>
+      <c r="J10" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="K10" s="91">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>42138</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2">
         <v>300</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D12" s="2">
         <v>269</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E12" s="2">
         <v>290</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F12" s="62">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G12" s="63">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H2" s="64">
-        <f t="shared" ref="H2:H3" si="0">3/3</f>
+      <c r="H12" s="64">
+        <f t="shared" ref="H12:H13" si="0">3/3</f>
         <v>1</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I12" s="64">
         <f>7/11</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="J2" s="65">
-        <f t="shared" ref="J2:J3" si="1">3/3</f>
+      <c r="J12" s="65">
+        <f t="shared" ref="J12:J13" si="1">3/3</f>
         <v>1</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K12" s="65">
         <f>7/10</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
         <v>42138</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C13" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D13" s="2">
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E13" s="2">
         <v>300</v>
       </c>
-      <c r="F3" s="66">
-        <f t="shared" ref="F3:F5" si="2">2/3</f>
+      <c r="F13" s="66">
+        <f t="shared" ref="F13:F15" si="2">2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G13" s="66">
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H13" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I13" s="67">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J13" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K13" s="62">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
         <v>42139</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C14" s="2">
         <v>300</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D14" s="2">
         <v>300</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E14" s="2">
         <v>300</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F14" s="67">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G14" s="65">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H14" s="63">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I14" s="63">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J14" s="64">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K14" s="64">
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
         <v>42139</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C15" s="2">
         <v>300</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D15" s="2">
         <v>247</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E15" s="2">
         <v>179</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F15" s="62">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G15" s="62">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H15" s="66">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I15" s="66">
         <f>7/11</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="J5" s="67">
-        <f t="shared" ref="J5:J6" si="3">3/3</f>
+      <c r="J15" s="67">
+        <f t="shared" ref="J15:J16" si="3">3/3</f>
         <v>1</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K15" s="65">
         <f>9/10</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A6" s="68">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A16" s="68">
         <v>42142</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C16" s="2">
         <v>300</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D16" s="2">
         <v>300</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E16" s="2">
         <v>300</v>
       </c>
-      <c r="F6" s="66">
-        <f t="shared" ref="F6:F7" si="4">3/3</f>
+      <c r="F16" s="66">
+        <f t="shared" ref="F16:F17" si="4">3/3</f>
         <v>1</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G16" s="69">
         <f>7/11</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H16" s="70">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I16" s="70">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J16" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K16" s="71">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AE6" s="72"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
+      <c r="O16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AE16" s="72"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
         <v>42142</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C17" s="2">
         <v>300</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D17" s="2">
         <v>268</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E17" s="2">
         <v>300</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F17" s="67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G17" s="65">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H17" s="63">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I17" s="63">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J7" s="64">
-        <f t="shared" ref="J7:J8" si="5">2/3</f>
+      <c r="J17" s="64">
+        <f t="shared" ref="J17:J18" si="5">2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K17" s="64">
         <f>6/11</f>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
         <v>42143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C18" s="2">
         <v>300</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D18" s="2">
         <v>255</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E18" s="2">
         <v>300</v>
       </c>
-      <c r="F8" s="73">
-        <f t="shared" ref="F8:F10" si="6">2/3</f>
+      <c r="F18" s="73">
+        <f t="shared" ref="F18:F20" si="6">2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G18" s="74">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H18" s="64">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I18" s="64">
         <f>7/11</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J18" s="65">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K18" s="65">
         <f>5/10</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
         <v>42143</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C19" s="2">
         <v>284</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D19" s="2">
         <v>300</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E19" s="2">
         <v>300</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F19" s="66">
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G19" s="64">
         <f>4/11</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H19" s="65">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I19" s="65">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J19" s="63">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K19" s="63">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
         <v>42144</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2">
         <v>300</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D20" s="2">
         <v>300</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E20" s="2">
         <v>300</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F20" s="65">
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G20" s="65">
         <f>4/10</f>
         <v>0.4</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H20" s="63">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I10" s="63">
-        <f t="shared" ref="I10:J10" si="7">3/3</f>
+      <c r="I20" s="63">
+        <f t="shared" ref="I20:J20" si="7">3/3</f>
         <v>1</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J20" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K20" s="64">
         <f>9/11</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1">
-      <c r="B12" s="75" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B22" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="76">
-        <f t="shared" ref="C12:K12" si="8">AVERAGE(C3:C10)</f>
+      <c r="C22" s="76">
+        <f t="shared" ref="C22:K22" si="8">AVERAGE(C13:C20)</f>
         <v>298</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D22" s="76">
         <f t="shared" si="8"/>
         <v>283.75</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E22" s="76">
         <f t="shared" si="8"/>
         <v>284.875</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F22" s="76">
         <f t="shared" si="8"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G22" s="76">
         <f t="shared" si="8"/>
         <v>0.42297979797979801</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H22" s="76">
         <f t="shared" si="8"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I22" s="76">
         <f t="shared" si="8"/>
         <v>0.51603535353535346</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J22" s="76">
         <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K22" s="76">
         <f t="shared" si="8"/>
         <v>0.54621212121212115</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="10">
-        <f t="shared" ref="C13:K13" si="9">STDEV(C3:C10)</f>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:K23" si="9">STDEV(C13:C20)</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D23" s="10">
         <f t="shared" si="9"/>
         <v>23.13161102412516</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E23" s="10">
         <f t="shared" si="9"/>
         <v>42.779960261786123</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F23" s="10">
         <f t="shared" si="9"/>
         <v>0.15430334996209122</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G23" s="10">
         <f t="shared" si="9"/>
         <v>0.17629477042682257</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H23" s="10">
         <f t="shared" si="9"/>
         <v>0.27817432013209303</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I23" s="10">
         <f t="shared" si="9"/>
         <v>0.29033756061954047</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J23" s="10">
         <f t="shared" si="9"/>
         <v>0.25197631533948511</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K23" s="10">
         <f t="shared" si="9"/>
         <v>0.23336284740533936</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C17" s="2" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G27" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J27" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C18" s="72">
+      <c r="L27" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C28" s="72">
         <f>90/483</f>
         <v>0.18633540372670807</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D28" s="10">
         <f>27/481</f>
         <v>5.6133056133056136E-2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E28" s="10">
         <f>30/430</f>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H28" s="10">
+        <f>AVERAGE(F12,F15,F18)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="I28" s="10">
+        <f>AVERAGE(H14,H17,H20)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J28" s="78">
+        <f>AVERAGE(J13,J16,J19)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="92">
         <f>AVERAGE(F2,F5,F8)</f>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="I18" s="10">
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="N28" s="10">
         <f>AVERAGE(H4,H7,H10)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="J18" s="78">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O28" s="78">
         <f>AVERAGE(J3,J6,J9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C19" s="72">
+        <v>0.77666666666666673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C29" s="72">
         <f>160/483</f>
         <v>0.33126293995859213</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D29" s="10">
         <f>34/481</f>
         <v>7.068607068607069E-2</v>
-      </c>
-      <c r="E19" s="10">
-        <f>42/430</f>
-        <v>9.7674418604651161E-2</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="79">
-        <f>AVERAGE(G2,G5,G8)</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="I19" s="79">
-        <f>AVERAGE(I4,I7,I10)</f>
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="J19" s="80">
-        <f>AVERAGE(K3,K6,K9)</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C20" s="72">
-        <f>210/483</f>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="D20" s="10">
-        <f>127/481</f>
-        <v>0.26403326403326405</v>
-      </c>
-      <c r="E20" s="10">
-        <f>80/430</f>
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C21" s="72">
-        <f>298/483</f>
-        <v>0.61697722567287783</v>
-      </c>
-      <c r="D21" s="10">
-        <f>207/481</f>
-        <v>0.43035343035343038</v>
-      </c>
-      <c r="E21" s="10">
-        <f>160/430</f>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C22" s="72">
-        <f>317/483</f>
-        <v>0.65631469979296064</v>
-      </c>
-      <c r="D22" s="72">
-        <f>218/481</f>
-        <v>0.45322245322245325</v>
-      </c>
-      <c r="E22" s="72">
-        <f>300/430</f>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="10">
-        <f>AVERAGE(F3,F6,F9)</f>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="I22" s="10">
-        <f>AVERAGE(H2,H5,H8)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J22" s="78">
-        <f>AVERAGE(J4,J7,J10)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="15.75" customHeight="1">
-      <c r="D23" s="10">
-        <f>236/481</f>
-        <v>0.49064449064449067</v>
-      </c>
-      <c r="E23" s="10">
-        <f>334/430</f>
-        <v>0.77674418604651163</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="79">
-        <f>AVERAGE(G3,G6,G9)</f>
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="I23" s="79">
-        <f>AVERAGE(I2,I5,I8)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="J23" s="80">
-        <f>AVERAGE(K4,K7,K10)</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="15.75" customHeight="1">
-      <c r="D24" s="10">
-        <f>440/481</f>
-        <v>0.91476091476091481</v>
-      </c>
-      <c r="E24" s="10">
-        <f>352/430</f>
-        <v>0.81860465116279069</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="3:10" ht="15.75" customHeight="1">
-      <c r="E25" s="10">
-        <f>377/430</f>
-        <v>0.87674418604651161</v>
-      </c>
-      <c r="G25" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="15.75" customHeight="1">
-      <c r="E26" s="10">
-        <f>422/430</f>
-        <v>0.98139534883720925</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="10">
-        <f>AVERAGE(F4,F7,F10)</f>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="I26" s="10">
-        <f>AVERAGE(H3,H6,H9)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J26" s="78">
-        <f>AVERAGE(J2,J5,J8)</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="15.75" customHeight="1">
-      <c r="G27" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="79">
-        <f>AVERAGE(G4,G7,G10)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I27" s="79">
-        <f>AVERAGE(I3,I6,I9)</f>
-        <v>0.43333333333333329</v>
-      </c>
-      <c r="J27" s="80">
-        <f>AVERAGE(K2,K5,K8)</f>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C29" s="10">
-        <f>70/483</f>
-        <v>0.14492753623188406</v>
-      </c>
-      <c r="D29" s="10">
-        <f>35/481</f>
-        <v>7.2765072765072769E-2</v>
       </c>
       <c r="E29" s="10">
         <f>42/430</f>
         <v>9.7674418604651161E-2</v>
       </c>
-      <c r="G29" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="84" t="s">
+      <c r="G29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="79">
+        <f>AVERAGE(G12,G15,G18)</f>
+        <v>0.59259259259259267</v>
+      </c>
+      <c r="I29" s="79">
+        <f>AVERAGE(I14,I17,I20)</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="J29" s="80">
+        <f>AVERAGE(K13,K16,K19)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="79">
+        <f>AVERAGE(G2,G5,G8)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="N29" s="79">
+        <f>AVERAGE(I4,I7,I10)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O29" s="80">
+        <f>AVERAGE(K3,K6,K9)</f>
+        <v>0.64333333333333342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C30" s="72">
+        <f>210/483</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="D30" s="10">
+        <f>127/481</f>
+        <v>0.26403326403326405</v>
+      </c>
+      <c r="E30" s="10">
+        <f>80/430</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C31" s="72">
+        <f>298/483</f>
+        <v>0.61697722567287783</v>
+      </c>
+      <c r="D31" s="10">
+        <f>207/481</f>
+        <v>0.43035343035343038</v>
+      </c>
+      <c r="E31" s="10">
+        <f>160/430</f>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="I31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="84" t="s">
+      <c r="J31" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C30" s="10">
-        <f>146/483</f>
-        <v>0.3022774327122153</v>
-      </c>
-      <c r="D30" s="10">
-        <f>148/481</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="E30" s="10">
-        <f>107/430</f>
-        <v>0.24883720930232558</v>
-      </c>
-      <c r="G30" s="83" t="s">
+      <c r="L31" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C32" s="72">
+        <f>317/483</f>
+        <v>0.65631469979296064</v>
+      </c>
+      <c r="D32" s="72">
+        <f>218/481</f>
+        <v>0.45322245322245325</v>
+      </c>
+      <c r="E32" s="72">
+        <f>300/430</f>
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="84">
-        <f>AVERAGE(H18,H22,H26)</f>
+      <c r="H32" s="10">
+        <f>AVERAGE(F13,F16,F19)</f>
         <v>0.77777777777777768</v>
       </c>
-      <c r="I30" s="84">
-        <f t="shared" ref="I30:J31" si="10">AVERAGE(I18,I22,I26)</f>
-        <v>0.74074074074074081</v>
-      </c>
-      <c r="J30" s="84">
-        <f t="shared" si="10"/>
-        <v>0.85185185185185175</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C31" s="10">
-        <f>222/483</f>
-        <v>0.45962732919254656</v>
-      </c>
-      <c r="D31" s="10">
-        <f>180/481</f>
-        <v>0.37422037422037424</v>
-      </c>
-      <c r="E31" s="10">
-        <f>243/430</f>
-        <v>0.56511627906976747</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="84">
-        <f>AVERAGE(H19,H23,H27)</f>
-        <v>0.45005611672278339</v>
-      </c>
-      <c r="I31" s="84">
-        <f t="shared" si="10"/>
-        <v>0.52940516273849603</v>
-      </c>
-      <c r="J31" s="84">
-        <f t="shared" si="10"/>
-        <v>0.5632996632996633</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C32" s="10">
-        <f>266/483</f>
-        <v>0.55072463768115942</v>
-      </c>
-      <c r="D32" s="10">
-        <f>260/481</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="E32" s="10">
-        <f>290/430</f>
-        <v>0.67441860465116277</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C33" s="72">
-        <f>324/483</f>
-        <v>0.67080745341614911</v>
-      </c>
-      <c r="D33" s="72">
-        <f>381/481</f>
-        <v>0.79209979209979209</v>
-      </c>
-      <c r="E33" s="72">
-        <f>310/430</f>
-        <v>0.72093023255813948</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C34" s="10">
-        <f>346/483</f>
-        <v>0.71635610766045543</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="I32" s="10">
+        <f>AVERAGE(H12,H15,H18)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J32" s="78">
+        <f>AVERAGE(J14,J17,J20)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="10">
+        <f>AVERAGE(F3,F6,F9)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N32" s="10">
+        <f>AVERAGE(H2,H5,H8)</f>
+        <v>0.89</v>
+      </c>
+      <c r="O32" s="78">
+        <f>AVERAGE(J4,J7,J10)</f>
+        <v>0.55666666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="15.75" customHeight="1">
+      <c r="D33" s="10">
         <f>236/481</f>
         <v>0.49064449064449067</v>
       </c>
+      <c r="E33" s="10">
+        <f>334/430</f>
+        <v>0.77674418604651163</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="79">
+        <f>AVERAGE(G13,G16,G19)</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="I33" s="79">
+        <f>AVERAGE(I12,I15,I18)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J33" s="80">
+        <f>AVERAGE(K14,K17,K20)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="79">
+        <f>AVERAGE(G3,G6,G9)</f>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="N33" s="79">
+        <f>AVERAGE(I2,I5,I8)</f>
+        <v>0.60666666666666658</v>
+      </c>
+      <c r="O33" s="80">
+        <f>AVERAGE(K4,K7,K10)</f>
+        <v>0.54666666666666675</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="15.75" customHeight="1">
+      <c r="D34" s="10">
+        <f>440/481</f>
+        <v>0.91476091476091481</v>
+      </c>
       <c r="E34" s="10">
-        <f>332/430</f>
-        <v>0.77209302325581397</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D35" s="10">
-        <f>218/481</f>
-        <v>0.45322245322245325</v>
-      </c>
+        <f>352/430</f>
+        <v>0.81860465116279069</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:15" ht="15.75" customHeight="1">
       <c r="E35" s="10">
         <f>377/430</f>
         <v>0.87674418604651161</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" ht="15.75" customHeight="1">
+      <c r="G35" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="15.75" customHeight="1">
       <c r="E36" s="10">
+        <f>422/430</f>
+        <v>0.98139534883720925</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="10">
+        <f>AVERAGE(F14,F17,F20)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="I36" s="10">
+        <f>AVERAGE(H13,H16,H19)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J36" s="78">
+        <f>AVERAGE(J12,J15,J18)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="10">
+        <f>AVERAGE(F7,F10,F4)</f>
+        <v>0.67</v>
+      </c>
+      <c r="N36" s="10">
+        <f>AVERAGE(H3,H6,H9)</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="O36" s="78">
+        <f>AVERAGE(J2,J5,J8)</f>
+        <v>0.55666666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="15.75" customHeight="1">
+      <c r="G37" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="79">
+        <f>AVERAGE(G14,G17,G20)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I37" s="79">
+        <f>AVERAGE(I13,I16,I19)</f>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="J37" s="80">
+        <f>AVERAGE(K12,K15,K18)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="79">
+        <f>AVERAGE(G4,G7,G10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="79">
+        <f>AVERAGE(I3,I6,I9)</f>
+        <v>0.62</v>
+      </c>
+      <c r="O37" s="93">
+        <f>AVERAGE(K2,K5,K8)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C39" s="10">
+        <f>70/483</f>
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="D39" s="10">
+        <f>35/481</f>
+        <v>7.2765072765072769E-2</v>
+      </c>
+      <c r="E39" s="10">
+        <f>42/430</f>
+        <v>9.7674418604651161E-2</v>
+      </c>
+      <c r="G39" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" s="84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C40" s="10">
+        <f>146/483</f>
+        <v>0.3022774327122153</v>
+      </c>
+      <c r="D40" s="10">
+        <f>148/481</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E40" s="10">
+        <f>107/430</f>
+        <v>0.24883720930232558</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="84">
+        <f>AVERAGE(H28,H32,H36)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="I40" s="84">
+        <f t="shared" ref="I40:J41" si="10">AVERAGE(I28,I32,I36)</f>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="J40" s="84">
+        <f t="shared" si="10"/>
+        <v>0.85185185185185175</v>
+      </c>
+      <c r="L40" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="84">
+        <f>AVERAGE(M28,M32,M36)</f>
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="N40" s="84">
+        <f t="shared" ref="N40:O40" si="11">AVERAGE(N28,N32,N36)</f>
+        <v>0.77888888888888885</v>
+      </c>
+      <c r="O40" s="84">
+        <f t="shared" si="11"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C41" s="10">
+        <f>222/483</f>
+        <v>0.45962732919254656</v>
+      </c>
+      <c r="D41" s="10">
+        <f>180/481</f>
+        <v>0.37422037422037424</v>
+      </c>
+      <c r="E41" s="10">
+        <f>243/430</f>
+        <v>0.56511627906976747</v>
+      </c>
+      <c r="G41" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="84">
+        <f>AVERAGE(H29,H33,H37)</f>
+        <v>0.45005611672278339</v>
+      </c>
+      <c r="I41" s="84">
+        <f t="shared" si="10"/>
+        <v>0.52940516273849603</v>
+      </c>
+      <c r="J41" s="84">
+        <f t="shared" si="10"/>
+        <v>0.5632996632996633</v>
+      </c>
+      <c r="L41" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" s="84">
+        <f>AVERAGE(M29,M33,M37)</f>
+        <v>0.55333333333333334</v>
+      </c>
+      <c r="N41" s="84">
+        <f t="shared" ref="N41:O41" si="12">AVERAGE(N29,N33,N37)</f>
+        <v>0.63111111111111107</v>
+      </c>
+      <c r="O41" s="84">
+        <f t="shared" si="12"/>
+        <v>0.61888888888888893</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C42" s="10">
+        <f>266/483</f>
+        <v>0.55072463768115942</v>
+      </c>
+      <c r="D42" s="10">
+        <f>260/481</f>
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="E42" s="10">
+        <f>290/430</f>
+        <v>0.67441860465116277</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C43" s="72">
+        <f>324/483</f>
+        <v>0.67080745341614911</v>
+      </c>
+      <c r="D43" s="72">
+        <f>381/481</f>
+        <v>0.79209979209979209</v>
+      </c>
+      <c r="E43" s="72">
+        <f>310/430</f>
+        <v>0.72093023255813948</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C44" s="10">
+        <f>346/483</f>
+        <v>0.71635610766045543</v>
+      </c>
+      <c r="D44" s="10">
+        <f>236/481</f>
+        <v>0.49064449064449067</v>
+      </c>
+      <c r="E44" s="10">
+        <f>332/430</f>
+        <v>0.77209302325581397</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" customHeight="1">
+      <c r="D45" s="10">
+        <f>218/481</f>
+        <v>0.45322245322245325</v>
+      </c>
+      <c r="E45" s="10">
+        <f>377/430</f>
+        <v>0.87674418604651161</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" ht="15.75" customHeight="1">
+      <c r="E46" s="10">
         <f>384/430</f>
         <v>0.89302325581395348</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C38" s="2" t="s">
+    <row r="48" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C39" s="2">
+    <row r="49" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C49" s="2">
         <f>5/430</f>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D49" s="2">
         <f>11/483</f>
         <v>2.2774327122153208E-2</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E49" s="2">
         <f>9/481</f>
         <v>1.8711018711018712E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C40" s="10">
+    <row r="50" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C50" s="10">
         <f>10/430</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D50" s="10">
         <f>35/483</f>
         <v>7.2463768115942032E-2</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E50" s="10">
         <f>35/481</f>
         <v>7.2765072765072769E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C41" s="10">
+    <row r="51" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C51" s="10">
         <f>20/430</f>
         <v>4.6511627906976744E-2</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D51" s="10">
         <f>268/483</f>
         <v>0.5548654244306418</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E51" s="10">
         <f>25/481</f>
         <v>5.1975051975051978E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C42" s="10">
+    <row r="52" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C52" s="10">
         <f>25/430</f>
         <v>5.8139534883720929E-2</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D52" s="10">
         <f>324/483</f>
         <v>0.67080745341614911</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E52" s="10">
         <f>98/481</f>
         <v>0.20374220374220375</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C43" s="72">
+    <row r="53" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C53" s="72">
         <f>158/430</f>
         <v>0.36744186046511629</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D53" s="72">
         <f>87/483</f>
         <v>0.18012422360248448</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E53" s="72">
         <f>102/481</f>
         <v>0.21205821205821207</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C44" s="10">
+    <row r="54" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C54" s="10">
         <f>170/430</f>
         <v>0.39534883720930231</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C45" s="10">
+    <row r="55" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C55" s="10">
         <f>196/430</f>
         <v>0.45581395348837211</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C47" s="2" t="s">
+    <row r="57" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C48" s="10">
+    <row r="58" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C58" s="10">
         <f>9/481</f>
         <v>1.8711018711018712E-2</v>
-      </c>
-      <c r="D48" s="10">
-        <f>20/430</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="E48" s="10">
-        <f>11/483</f>
-        <v>2.2774327122153208E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C49" s="10">
-        <f>129/481</f>
-        <v>0.26819126819126821</v>
-      </c>
-      <c r="D49" s="10">
-        <f>30/430</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="E49" s="10">
-        <f>90/483</f>
-        <v>0.18633540372670807</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C50" s="10">
-        <f>150/481</f>
-        <v>0.31185031185031187</v>
-      </c>
-      <c r="D50" s="10">
-        <f>335/430</f>
-        <v>0.77906976744186052</v>
-      </c>
-      <c r="E50" s="10">
-        <f>234/483</f>
-        <v>0.48447204968944102</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C51" s="10">
-        <f>220/481</f>
-        <v>0.45738045738045741</v>
-      </c>
-      <c r="D51" s="10">
-        <f>356/430</f>
-        <v>0.82790697674418601</v>
-      </c>
-      <c r="E51" s="10">
-        <f>324/483</f>
-        <v>0.67080745341614911</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C52" s="72"/>
-      <c r="D52" s="72">
-        <f>380/430</f>
-        <v>0.88372093023255816</v>
-      </c>
-      <c r="E52" s="72">
-        <f>337/483</f>
-        <v>0.6977225672877847</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D53" s="10">
-        <f>391/430</f>
-        <v>0.90930232558139534</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D54" s="10">
-        <f>408/430</f>
-        <v>0.94883720930232562</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C57" s="2">
-        <f>27/481</f>
-        <v>5.6133056133056136E-2</v>
-      </c>
-      <c r="D57" s="10">
-        <f>9/430</f>
-        <v>2.0930232558139535E-2</v>
-      </c>
-      <c r="E57" s="10">
-        <f>11/483</f>
-        <v>2.2774327122153208E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C58" s="10">
-        <f>35/481</f>
-        <v>7.2765072765072769E-2</v>
       </c>
       <c r="D58" s="10">
         <f>20/430</f>
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="E58" s="10">
-        <f>82/483</f>
-        <v>0.16977225672877846</v>
+        <f>11/483</f>
+        <v>2.2774327122153208E-2</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="15.75" customHeight="1">
       <c r="C59" s="10">
-        <f>98/481</f>
-        <v>0.20374220374220375</v>
+        <f>129/481</f>
+        <v>0.26819126819126821</v>
       </c>
       <c r="D59" s="10">
-        <f>43/430</f>
-        <v>0.1</v>
+        <f>30/430</f>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="E59" s="10">
-        <f>146/483</f>
-        <v>0.3022774327122153</v>
+        <f>90/483</f>
+        <v>0.18633540372670807</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="15.75" customHeight="1">
       <c r="C60" s="10">
-        <f>106/481</f>
-        <v>0.22037422037422039</v>
+        <f>150/481</f>
+        <v>0.31185031185031187</v>
       </c>
       <c r="D60" s="10">
-        <f>79/430</f>
-        <v>0.18372093023255814</v>
+        <f>335/430</f>
+        <v>0.77906976744186052</v>
       </c>
       <c r="E60" s="10">
         <f>234/483</f>
@@ -10889,204 +11056,309 @@
       </c>
     </row>
     <row r="61" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C61" s="72">
+      <c r="C61" s="10">
+        <f>220/481</f>
+        <v>0.45738045738045741</v>
+      </c>
+      <c r="D61" s="10">
+        <f>356/430</f>
+        <v>0.82790697674418601</v>
+      </c>
+      <c r="E61" s="10">
+        <f>324/483</f>
+        <v>0.67080745341614911</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C62" s="72"/>
+      <c r="D62" s="72">
+        <f>380/430</f>
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="E62" s="72">
+        <f>337/483</f>
+        <v>0.6977225672877847</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="15.75" customHeight="1">
+      <c r="D63" s="10">
+        <f>391/430</f>
+        <v>0.90930232558139534</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="15.75" customHeight="1">
+      <c r="D64" s="10">
+        <f>408/430</f>
+        <v>0.94883720930232562</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C67" s="2">
+        <f>27/481</f>
+        <v>5.6133056133056136E-2</v>
+      </c>
+      <c r="D67" s="10">
+        <f>9/430</f>
+        <v>2.0930232558139535E-2</v>
+      </c>
+      <c r="E67" s="10">
+        <f>11/483</f>
+        <v>2.2774327122153208E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C68" s="10">
+        <f>35/481</f>
+        <v>7.2765072765072769E-2</v>
+      </c>
+      <c r="D68" s="10">
+        <f>20/430</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="E68" s="10">
+        <f>82/483</f>
+        <v>0.16977225672877846</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C69" s="10">
+        <f>98/481</f>
+        <v>0.20374220374220375</v>
+      </c>
+      <c r="D69" s="10">
+        <f>43/430</f>
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="10">
+        <f>146/483</f>
+        <v>0.3022774327122153</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C70" s="10">
+        <f>106/481</f>
+        <v>0.22037422037422039</v>
+      </c>
+      <c r="D70" s="10">
+        <f>79/430</f>
+        <v>0.18372093023255814</v>
+      </c>
+      <c r="E70" s="10">
+        <f>234/483</f>
+        <v>0.48447204968944102</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C71" s="72">
         <f>148/481</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D71" s="72">
         <f>173/430</f>
         <v>0.40232558139534885</v>
       </c>
-      <c r="E61" s="72">
+      <c r="E71" s="72">
         <f>267/483</f>
         <v>0.55279503105590067</v>
       </c>
     </row>
-    <row r="62" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C62" s="10">
+    <row r="72" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C72" s="10">
         <f>180/481</f>
         <v>0.37422037422037424</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D72" s="10">
         <f>198/430</f>
         <v>0.46046511627906977</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E72" s="10">
         <f>402/483</f>
         <v>0.83229813664596275</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C63" s="10">
+    <row r="73" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C73" s="10">
         <f>261/481</f>
         <v>0.54261954261954259</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D73" s="10">
         <f>223/430</f>
         <v>0.51860465116279075</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E73" s="10">
         <f>457/483</f>
         <v>0.94616977225672882</v>
       </c>
     </row>
-    <row r="64" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C64" s="10">
+    <row r="74" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C74" s="10">
         <f>315/481</f>
         <v>0.65488565488565487</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D74" s="10">
         <f>240/430</f>
         <v>0.55813953488372092</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C65" s="10">
+    <row r="75" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C75" s="10">
         <f>393/481</f>
         <v>0.81704781704781704</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D75" s="10">
         <f>310/430</f>
         <v>0.72093023255813948</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C66" s="10">
+    <row r="76" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C76" s="10">
         <f>440/481</f>
         <v>0.91476091476091481</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D76" s="10">
         <f>353/430</f>
         <v>0.82093023255813957</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D67" s="10">
+    <row r="77" spans="3:5" ht="15.75" customHeight="1">
+      <c r="D77" s="10">
         <f>363/430</f>
         <v>0.84418604651162787</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D68" s="10">
+    <row r="78" spans="3:5" ht="15.75" customHeight="1">
+      <c r="D78" s="10">
         <f>384/430</f>
         <v>0.89302325581395348</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C70" s="2" t="s">
+    <row r="80" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C71" s="10">
+    <row r="81" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C81" s="10">
         <f>10/430</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D81" s="10">
         <f>186/483</f>
         <v>0.38509316770186336</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E81" s="10">
         <f>27/481</f>
         <v>5.6133056133056136E-2</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C72" s="10">
+    <row r="82" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C82" s="10">
         <f>22/430</f>
         <v>5.1162790697674418E-2</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D82" s="10">
         <f>320/483</f>
         <v>0.66252587991718426</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E82" s="10">
         <f>34/481</f>
         <v>7.068607068607069E-2</v>
       </c>
     </row>
-    <row r="73" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C73" s="10">
+    <row r="83" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C83" s="10">
         <f>201/430</f>
         <v>0.46744186046511627</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D83" s="10">
         <f>11/483</f>
         <v>2.2774327122153208E-2</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E83" s="10">
         <f>70/481</f>
         <v>0.14553014553014554</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C74" s="10">
+    <row r="84" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C84" s="10">
         <f>352/430</f>
         <v>0.81860465116279069</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D84" s="10">
         <f>146/483</f>
         <v>0.3022774327122153</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E84" s="10">
         <f>85/481</f>
         <v>0.17671517671517672</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C75" s="72">
+    <row r="85" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C85" s="72">
         <f>377/430</f>
         <v>0.87674418604651161</v>
       </c>
-      <c r="D75" s="72">
+      <c r="D85" s="72">
         <f>234/483</f>
         <v>0.48447204968944102</v>
       </c>
-      <c r="E75" s="72">
+      <c r="E85" s="72">
         <f>116/481</f>
         <v>0.24116424116424118</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C76" s="10">
+    <row r="86" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C86" s="10">
         <f>403/430</f>
         <v>0.93720930232558142</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E86" s="10">
         <f>133/481</f>
         <v>0.27650727650727652</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C77" s="10">
+    <row r="87" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C87" s="10">
         <f>422/430</f>
         <v>0.98139534883720925</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E87" s="10">
         <f>151/481</f>
         <v>0.31392931392931395</v>
       </c>
     </row>
-    <row r="78" spans="3:5" ht="15.75" customHeight="1">
-      <c r="E78" s="10">
+    <row r="88" spans="3:5" ht="15.75" customHeight="1">
+      <c r="E88" s="10">
         <f>343/481</f>
         <v>0.71309771309771308</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="15.75" customHeight="1">
-      <c r="E79" s="10">
+    <row r="89" spans="3:5" ht="15.75" customHeight="1">
+      <c r="E89" s="10">
         <f>261/481</f>
         <v>0.54261954261954259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
